--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-20" yWindow="460" windowWidth="22900" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="22900" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -165,7 +165,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -175,29 +175,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="7"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,8 +662,8 @@
   </sheetPr>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -679,13 +676,11 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Arizona</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>&lt;- State</t>
-        </is>
+          <t>West Virginia</t>
+        </is>
+      </c>
+      <c r="C1" s="16" t="n">
+        <v>44307</v>
       </c>
     </row>
     <row r="2">
@@ -733,7 +728,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="8" t="inlineStr">
+      <c r="B6" s="7" t="inlineStr">
         <is>
           <t>http://www.fs.fed.us/pnw/pubs/pnw-gtr684.pdf</t>
         </is>
@@ -750,7 +745,7 @@
           <t>Table 2 (forest area by region), Table 5 (management costs per acre by region)</t>
         </is>
       </c>
-      <c r="J7" s="8" t="inlineStr">
+      <c r="J7" s="7" t="inlineStr">
         <is>
           <t>https://archive.org/details/CAT91946672</t>
         </is>
@@ -906,15 +901,15 @@
   <dimension ref="A1:F107"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="25.1640625" customWidth="1" min="1" max="1"/>
-    <col width="11.83203125" customWidth="1" min="2" max="2"/>
-    <col width="11.33203125" customWidth="1" min="3" max="3"/>
-    <col width="20.1640625" customWidth="1" min="4" max="4"/>
+    <col width="25.1640625" customWidth="1" style="14" min="1" max="1"/>
+    <col width="11.83203125" customWidth="1" style="14" min="2" max="2"/>
+    <col width="11.33203125" customWidth="1" style="14" min="3" max="3"/>
+    <col width="20.1640625" customWidth="1" style="14" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1094,12 +1089,12 @@
           <t>Region and Practice</t>
         </is>
       </c>
-      <c r="B14" s="12" t="inlineStr">
+      <c r="B14" s="13" t="inlineStr">
         <is>
           <t>Stand Type</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -1418,7 +1413,7 @@
       <c r="C38" s="4" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="17">
+      <c r="A39" s="12">
         <f>(SUM(B16:B19)*B7+SUM(C16:C19)*C7+SUM(B21:B24)*B11+SUM(C21:C24)*C11+SUM(B26:B29)*B10+SUM(C26:C29)*C10+SUM(B31:B34)*B3+SUM(C31:C34)*C3)/SUM(B3:C3,B7:C7,B10:C11)</f>
         <v/>
       </c>
@@ -1429,7 +1424,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="17">
+      <c r="A40" s="12">
         <f>A39*About!A27</f>
         <v/>
       </c>
@@ -1455,18 +1450,18 @@
         </is>
       </c>
     </row>
-    <row r="46" ht="96" customHeight="1">
-      <c r="A46" s="10" t="inlineStr">
+    <row r="46" ht="96" customHeight="1" s="14">
+      <c r="A46" s="8" t="inlineStr">
         <is>
           <t>Region</t>
         </is>
       </c>
-      <c r="B46" s="10" t="inlineStr">
+      <c r="B46" s="8" t="inlineStr">
         <is>
           <t>Passive Forest Management Costs (1990$/acre/year)</t>
         </is>
       </c>
-      <c r="D46" s="10" t="n"/>
+      <c r="D46" s="8" t="n"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1477,17 +1472,17 @@
       <c r="B47" s="2" t="n">
         <v>0.4</v>
       </c>
-      <c r="D47" s="14" t="inlineStr">
+      <c r="D47" s="10" t="inlineStr">
         <is>
           <t>Current state</t>
         </is>
       </c>
-      <c r="E47" s="16" t="inlineStr">
+      <c r="E47" s="11" t="inlineStr">
         <is>
           <t>1990 ($)</t>
         </is>
       </c>
-      <c r="F47" s="16" t="inlineStr">
+      <c r="F47" s="11" t="inlineStr">
         <is>
           <t>2012 ($)</t>
         </is>
@@ -1507,7 +1502,7 @@
         <v/>
       </c>
       <c r="E48">
-        <f>LOOKUP(D48,A59:C107,C59:C107)</f>
+        <f>LOOKUP(D48,A58:C107,C59:C107)</f>
         <v/>
       </c>
       <c r="F48">
@@ -1604,30 +1599,33 @@
       <c r="D56" s="2" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="inlineStr">
+      <c r="A58" s="9" t="inlineStr">
         <is>
           <t>Alabama</t>
         </is>
       </c>
-      <c r="B58" s="11" t="inlineStr">
+      <c r="B58" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
       </c>
+      <c r="C58" t="n">
+        <v>10.1</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="inlineStr">
+      <c r="A59" s="9" t="inlineStr">
         <is>
           <t>Alaska</t>
         </is>
       </c>
-      <c r="B59" s="11" t="n"/>
+      <c r="B59" s="9" t="n"/>
       <c r="C59" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="inlineStr">
+      <c r="A60" s="9" t="inlineStr">
         <is>
           <t>Arizona</t>
         </is>
@@ -1643,7 +1641,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="inlineStr">
+      <c r="A61" s="9" t="inlineStr">
         <is>
           <t>Arkansas</t>
         </is>
@@ -1659,7 +1657,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="inlineStr">
+      <c r="A62" s="9" t="inlineStr">
         <is>
           <t>California</t>
         </is>
@@ -1675,7 +1673,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="inlineStr">
+      <c r="A63" s="9" t="inlineStr">
         <is>
           <t>Colorado</t>
         </is>
@@ -1691,7 +1689,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="inlineStr">
+      <c r="A64" s="9" t="inlineStr">
         <is>
           <t>Connecticut</t>
         </is>
@@ -1707,7 +1705,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="inlineStr">
+      <c r="A65" s="9" t="inlineStr">
         <is>
           <t>Delaware</t>
         </is>
@@ -1723,7 +1721,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="inlineStr">
+      <c r="A66" s="9" t="inlineStr">
         <is>
           <t>Florida</t>
         </is>
@@ -1739,12 +1737,12 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="inlineStr">
+      <c r="A67" s="9" t="inlineStr">
         <is>
           <t>Georgia</t>
         </is>
       </c>
-      <c r="B67" s="11" t="inlineStr">
+      <c r="B67" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -1755,19 +1753,19 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="11" t="inlineStr">
+      <c r="A68" s="9" t="inlineStr">
         <is>
           <t>Hawaii</t>
         </is>
       </c>
-      <c r="B68" s="11" t="n"/>
+      <c r="B68" s="9" t="n"/>
       <c r="C68">
         <f>SUMIFS($B$47:$B$56,$A$47:$A$56,B68)</f>
         <v/>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="11" t="inlineStr">
+      <c r="A69" s="9" t="inlineStr">
         <is>
           <t>Idaho</t>
         </is>
@@ -1783,7 +1781,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="11" t="inlineStr">
+      <c r="A70" s="9" t="inlineStr">
         <is>
           <t>Illinois</t>
         </is>
@@ -1799,7 +1797,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="11" t="inlineStr">
+      <c r="A71" s="9" t="inlineStr">
         <is>
           <t>Indiana</t>
         </is>
@@ -1815,7 +1813,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="11" t="inlineStr">
+      <c r="A72" s="9" t="inlineStr">
         <is>
           <t>Iowa</t>
         </is>
@@ -1831,7 +1829,7 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="11" t="inlineStr">
+      <c r="A73" s="9" t="inlineStr">
         <is>
           <t>Kansas</t>
         </is>
@@ -1847,12 +1845,12 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="11" t="inlineStr">
+      <c r="A74" s="9" t="inlineStr">
         <is>
           <t>Kentucky</t>
         </is>
       </c>
-      <c r="B74" s="11" t="inlineStr">
+      <c r="B74" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -1863,7 +1861,7 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="11" t="inlineStr">
+      <c r="A75" s="9" t="inlineStr">
         <is>
           <t>Louisiana</t>
         </is>
@@ -1879,7 +1877,7 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="11" t="inlineStr">
+      <c r="A76" s="9" t="inlineStr">
         <is>
           <t>Maine</t>
         </is>
@@ -1895,7 +1893,7 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="11" t="inlineStr">
+      <c r="A77" s="9" t="inlineStr">
         <is>
           <t>Maryland</t>
         </is>
@@ -1911,7 +1909,7 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="11" t="inlineStr">
+      <c r="A78" s="9" t="inlineStr">
         <is>
           <t>Massachusetts</t>
         </is>
@@ -1927,7 +1925,7 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="11" t="inlineStr">
+      <c r="A79" s="9" t="inlineStr">
         <is>
           <t>Michigan</t>
         </is>
@@ -1943,7 +1941,7 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="11" t="inlineStr">
+      <c r="A80" s="9" t="inlineStr">
         <is>
           <t>Minnesota</t>
         </is>
@@ -1959,12 +1957,12 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="11" t="inlineStr">
+      <c r="A81" s="9" t="inlineStr">
         <is>
           <t>Mississippi</t>
         </is>
       </c>
-      <c r="B81" s="11" t="inlineStr">
+      <c r="B81" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -1975,7 +1973,7 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="11" t="inlineStr">
+      <c r="A82" s="9" t="inlineStr">
         <is>
           <t>Missouri</t>
         </is>
@@ -1991,7 +1989,7 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="11" t="inlineStr">
+      <c r="A83" s="9" t="inlineStr">
         <is>
           <t>Montana</t>
         </is>
@@ -2007,7 +2005,7 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="11" t="inlineStr">
+      <c r="A84" s="9" t="inlineStr">
         <is>
           <t>Nebraska</t>
         </is>
@@ -2023,7 +2021,7 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="11" t="inlineStr">
+      <c r="A85" s="9" t="inlineStr">
         <is>
           <t>Nevada</t>
         </is>
@@ -2039,7 +2037,7 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="11" t="inlineStr">
+      <c r="A86" s="9" t="inlineStr">
         <is>
           <t>New Hampshire</t>
         </is>
@@ -2055,7 +2053,7 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="11" t="inlineStr">
+      <c r="A87" s="9" t="inlineStr">
         <is>
           <t>New Jersey</t>
         </is>
@@ -2071,7 +2069,7 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="11" t="inlineStr">
+      <c r="A88" s="9" t="inlineStr">
         <is>
           <t>New Mexico</t>
         </is>
@@ -2087,7 +2085,7 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="11" t="inlineStr">
+      <c r="A89" s="9" t="inlineStr">
         <is>
           <t>New York</t>
         </is>
@@ -2103,7 +2101,7 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="11" t="inlineStr">
+      <c r="A90" s="9" t="inlineStr">
         <is>
           <t>North Carolina</t>
         </is>
@@ -2119,7 +2117,7 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="11" t="inlineStr">
+      <c r="A91" s="9" t="inlineStr">
         <is>
           <t>North Dakota</t>
         </is>
@@ -2135,7 +2133,7 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="11" t="inlineStr">
+      <c r="A92" s="9" t="inlineStr">
         <is>
           <t>Ohio</t>
         </is>
@@ -2151,7 +2149,7 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="11" t="inlineStr">
+      <c r="A93" s="9" t="inlineStr">
         <is>
           <t>Oklahoma</t>
         </is>
@@ -2167,7 +2165,7 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="11" t="inlineStr">
+      <c r="A94" s="9" t="inlineStr">
         <is>
           <t>Oregon</t>
         </is>
@@ -2183,7 +2181,7 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="11" t="inlineStr">
+      <c r="A95" s="9" t="inlineStr">
         <is>
           <t>Pennsylvania</t>
         </is>
@@ -2199,7 +2197,7 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="11" t="inlineStr">
+      <c r="A96" s="9" t="inlineStr">
         <is>
           <t>Rhode Island</t>
         </is>
@@ -2215,7 +2213,7 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="11" t="inlineStr">
+      <c r="A97" s="9" t="inlineStr">
         <is>
           <t>South Carolina</t>
         </is>
@@ -2231,7 +2229,7 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="11" t="inlineStr">
+      <c r="A98" s="9" t="inlineStr">
         <is>
           <t>South Dakota</t>
         </is>
@@ -2247,12 +2245,12 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="11" t="inlineStr">
+      <c r="A99" s="9" t="inlineStr">
         <is>
           <t>Tennessee</t>
         </is>
       </c>
-      <c r="B99" s="11" t="inlineStr">
+      <c r="B99" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -2263,7 +2261,7 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="11" t="inlineStr">
+      <c r="A100" s="9" t="inlineStr">
         <is>
           <t>Texas</t>
         </is>
@@ -2279,7 +2277,7 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="11" t="inlineStr">
+      <c r="A101" s="9" t="inlineStr">
         <is>
           <t>Utah</t>
         </is>
@@ -2295,7 +2293,7 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="11" t="inlineStr">
+      <c r="A102" s="9" t="inlineStr">
         <is>
           <t>Vermont</t>
         </is>
@@ -2311,7 +2309,7 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="11" t="inlineStr">
+      <c r="A103" s="9" t="inlineStr">
         <is>
           <t>Virginia</t>
         </is>
@@ -2327,7 +2325,7 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="11" t="inlineStr">
+      <c r="A104" s="9" t="inlineStr">
         <is>
           <t>Washington</t>
         </is>
@@ -2343,12 +2341,12 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="11" t="inlineStr">
+      <c r="A105" s="9" t="inlineStr">
         <is>
           <t>West Virginia</t>
         </is>
       </c>
-      <c r="B105" s="11" t="inlineStr">
+      <c r="B105" s="9" t="inlineStr">
         <is>
           <t>Appalachian</t>
         </is>
@@ -2359,7 +2357,7 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="11" t="inlineStr">
+      <c r="A106" s="9" t="inlineStr">
         <is>
           <t>Wisconsin</t>
         </is>
@@ -2375,7 +2373,7 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="11" t="inlineStr">
+      <c r="A107" s="9" t="inlineStr">
         <is>
           <t>Wyoming</t>
         </is>
@@ -2408,13 +2406,13 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="31.1640625" customWidth="1" min="1" max="1"/>
+    <col width="31.1640625" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2430,7 +2428,7 @@
           <t>forest set asides</t>
         </is>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="12">
         <f>'Forest Mgmt Costs'!F48</f>
         <v/>
       </c>
@@ -2441,7 +2439,7 @@
           <t>afforestation and reforestation</t>
         </is>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="12">
         <f>'Forest Mgmt Costs'!F48</f>
         <v/>
       </c>
@@ -2452,7 +2450,7 @@
           <t>improved forest management</t>
         </is>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +2460,7 @@
           <t>avoid deforestation</t>
         </is>
       </c>
-      <c r="B5" s="17" t="n">
+      <c r="B5" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2472,7 +2470,7 @@
           <t>peatland restoration</t>
         </is>
       </c>
-      <c r="B6" s="17" t="n">
+      <c r="B6" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2482,7 +2480,7 @@
           <t>forest restoration</t>
         </is>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="12" t="n">
         <v>0</v>
       </c>
     </row>
